--- a/conejo/one_fictitious/output_test_a3.xlsx
+++ b/conejo/one_fictitious/output_test_a3.xlsx
@@ -455,7 +455,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -466,7 +466,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -477,7 +477,7 @@
         <v>76</v>
       </c>
       <c r="C4" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -488,7 +488,7 @@
         <v>76</v>
       </c>
       <c r="C5" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -499,7 +499,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -510,7 +510,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         <v>76</v>
       </c>
       <c r="C8" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -532,7 +532,7 @@
         <v>76</v>
       </c>
       <c r="C9" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -620,7 +620,7 @@
         <v>12</v>
       </c>
       <c r="C17" t="n">
-        <v>532.79425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -708,7 +708,7 @@
         <v>400</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26">
@@ -719,7 +719,7 @@
         <v>50</v>
       </c>
       <c r="C26" t="n">
-        <v>48.705746</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27">
@@ -741,7 +741,7 @@
         <v>50</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29">
@@ -752,7 +752,7 @@
         <v>50</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30">
@@ -763,7 +763,7 @@
         <v>50</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31">
@@ -774,7 +774,7 @@
         <v>50</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32">
@@ -864,10 +864,10 @@
         <v>175</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.4495733</v>
+        <v>27.507133</v>
       </c>
       <c r="D2" t="n">
-        <v>2.8393946</v>
+        <v>0.028976112</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -884,10 +884,10 @@
         <v>175</v>
       </c>
       <c r="C3" t="n">
-        <v>24.064624</v>
+        <v>-96.96709300000001</v>
       </c>
       <c r="D3" t="n">
-        <v>-89.00317800000001</v>
+        <v>-0.90828046</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>175</v>
       </c>
       <c r="C4" t="n">
-        <v>61.38495</v>
+        <v>-38.54004</v>
       </c>
       <c r="D4" t="n">
-        <v>18.615179</v>
+        <v>0.18996858</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>175</v>
       </c>
       <c r="C5" t="n">
-        <v>43.400663</v>
+        <v>-49.712129</v>
       </c>
       <c r="D5" t="n">
-        <v>8.164090399999999</v>
+        <v>0.083314972</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>175</v>
       </c>
       <c r="C6" t="n">
-        <v>50.149764</v>
+        <v>-19.780738</v>
       </c>
       <c r="D6" t="n">
-        <v>26.597707</v>
+        <v>0.27143019</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -964,10 +964,10 @@
         <v>175</v>
       </c>
       <c r="C7" t="n">
-        <v>-23.263669</v>
+        <v>13.997097</v>
       </c>
       <c r="D7" t="n">
-        <v>106.69231</v>
+        <v>1.088798</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>-132.67171</v>
+        <v>-290.96419</v>
       </c>
       <c r="D8" t="n">
-        <v>-110.74476</v>
+        <v>-1.1301536</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1004,10 +1004,10 @@
         <v>175</v>
       </c>
       <c r="C9" t="n">
-        <v>-30.599337</v>
+        <v>-123.71213</v>
       </c>
       <c r="D9" t="n">
-        <v>6.6855544</v>
+        <v>0.068226434</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1024,10 +1024,10 @@
         <v>175</v>
       </c>
       <c r="C10" t="n">
-        <v>-9.615050399999999</v>
+        <v>-109.54004</v>
       </c>
       <c r="D10" t="n">
-        <v>19.272186</v>
+        <v>0.19667335</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>175</v>
       </c>
       <c r="C11" t="n">
-        <v>-85.850236</v>
+        <v>-155.78074</v>
       </c>
       <c r="D11" t="n">
-        <v>8.450313100000001</v>
+        <v>0.08623563200000001</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-316.09255</v>
+        <v>-9.1410573</v>
       </c>
     </row>
     <row r="13">
@@ -1084,10 +1084,10 @@
         <v>175</v>
       </c>
       <c r="C13" t="n">
-        <v>-12.999507</v>
+        <v>-24.565076</v>
       </c>
       <c r="D13" t="n">
-        <v>-10.099159</v>
+        <v>-0.10306221</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>175</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.50049327</v>
+        <v>11.065076</v>
       </c>
       <c r="D14" t="n">
-        <v>10.099159</v>
+        <v>0.10306221</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1124,10 +1124,10 @@
         <v>400</v>
       </c>
       <c r="C15" t="n">
-        <v>-92.23339300000001</v>
+        <v>-149.94941</v>
       </c>
       <c r="D15" t="n">
-        <v>-4.3606364</v>
+        <v>0.41759948</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>400</v>
       </c>
       <c r="C16" t="n">
-        <v>-149.62912</v>
+        <v>-159.33069</v>
       </c>
       <c r="D16" t="n">
-        <v>79.931335</v>
+        <v>0.35360174</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1164,10 +1164,10 @@
         <v>400</v>
       </c>
       <c r="C17" t="n">
-        <v>-116.78503</v>
+        <v>-219.93721</v>
       </c>
       <c r="D17" t="n">
-        <v>-24.558954</v>
+        <v>0.21147507</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>400</v>
       </c>
       <c r="C18" t="n">
-        <v>-174.18075</v>
+        <v>-229.31849</v>
       </c>
       <c r="D18" t="n">
-        <v>59.733017</v>
+        <v>0.14747733</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1204,10 +1204,10 @@
         <v>500</v>
       </c>
       <c r="C19" t="n">
-        <v>-260.42076</v>
+        <v>-219.0275</v>
       </c>
       <c r="D19" t="n">
-        <v>85.570949</v>
+        <v>0.040522324</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1224,10 +1224,10 @@
         <v>500</v>
       </c>
       <c r="C20" t="n">
-        <v>51.40234</v>
+        <v>-150.85913</v>
       </c>
       <c r="D20" t="n">
-        <v>-89.33437600000001</v>
+        <v>0.27908024</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>500</v>
       </c>
       <c r="C21" t="n">
-        <v>-159.97824</v>
+        <v>-202.61025</v>
       </c>
       <c r="D21" t="n">
-        <v>1.2789781</v>
+        <v>0.10452006</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1264,10 +1264,10 @@
         <v>500</v>
       </c>
       <c r="C22" t="n">
-        <v>-163.83163</v>
+        <v>-186.03893</v>
       </c>
       <c r="D22" t="n">
-        <v>158.69447</v>
+        <v>0.36740939</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1284,10 +1284,10 @@
         <v>500</v>
       </c>
       <c r="C23" t="n">
-        <v>-94.398999</v>
+        <v>-95.63775</v>
       </c>
       <c r="D23" t="n">
-        <v>157.41549</v>
+        <v>0.26288933</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1304,10 +1304,10 @@
         <v>500</v>
       </c>
       <c r="C24" t="n">
-        <v>-142.59766</v>
+        <v>-344.85913</v>
       </c>
       <c r="D24" t="n">
-        <v>-125.49353</v>
+        <v>0.39204129</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1324,10 +1324,10 @@
         <v>500</v>
       </c>
       <c r="C25" t="n">
-        <v>74.882769</v>
+        <v>115.19187</v>
       </c>
       <c r="D25" t="n">
-        <v>66.804861</v>
+        <v>4.0072915</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>500</v>
       </c>
       <c r="C26" t="n">
-        <v>81.619888</v>
+        <v>-284.07803</v>
       </c>
       <c r="D26" t="n">
-        <v>-128.57815</v>
+        <v>-6.1048423</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1364,10 +1364,10 @@
         <v>500</v>
       </c>
       <c r="C27" t="n">
-        <v>81.619888</v>
+        <v>-284.07803</v>
       </c>
       <c r="D27" t="n">
-        <v>-128.57815</v>
+        <v>-6.1048423</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>500</v>
       </c>
       <c r="C28" t="n">
-        <v>132.67171</v>
+        <v>290.96419</v>
       </c>
       <c r="D28" t="n">
-        <v>68.556281</v>
+        <v>0.6996189</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1404,13 +1404,13 @@
         <v>500</v>
       </c>
       <c r="C29" t="n">
-        <v>125.05448</v>
+        <v>-450</v>
       </c>
       <c r="D29" t="n">
-        <v>-173.55921</v>
+        <v>6.4786082</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>22.410276</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1424,10 +1424,10 @@
         <v>500</v>
       </c>
       <c r="C30" t="n">
-        <v>-137.76937</v>
+        <v>275.33274</v>
       </c>
       <c r="D30" t="n">
-        <v>194.99499</v>
+        <v>-0.15661717</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>500</v>
       </c>
       <c r="C31" t="n">
-        <v>166.88708</v>
+        <v>-307.93014</v>
       </c>
       <c r="D31" t="n">
-        <v>-91.688874</v>
+        <v>3.0175364</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>500</v>
       </c>
       <c r="C32" t="n">
-        <v>-41.832599</v>
+        <v>-142.06986</v>
       </c>
       <c r="D32" t="n">
-        <v>-13.245656</v>
+        <v>3.5320874</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1484,10 +1484,10 @@
         <v>500</v>
       </c>
       <c r="C33" t="n">
-        <v>-110.05646</v>
+        <v>5.1129567</v>
       </c>
       <c r="D33" t="n">
-        <v>69.86507899999999</v>
+        <v>2.801998</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1504,10 +1504,10 @@
         <v>500</v>
       </c>
       <c r="C34" t="n">
-        <v>-110.05646</v>
+        <v>5.1129567</v>
       </c>
       <c r="D34" t="n">
-        <v>69.86507899999999</v>
+        <v>2.801998</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>500</v>
       </c>
       <c r="C35" t="n">
-        <v>-159.38468</v>
+        <v>47.16637</v>
       </c>
       <c r="D35" t="n">
-        <v>169.56086</v>
+        <v>-0.13618884</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1544,10 +1544,10 @@
         <v>500</v>
       </c>
       <c r="C36" t="n">
-        <v>-159.38468</v>
+        <v>47.16637</v>
       </c>
       <c r="D36" t="n">
-        <v>169.56086</v>
+        <v>-0.13618884</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1564,10 +1564,10 @@
         <v>500</v>
       </c>
       <c r="C37" t="n">
-        <v>-223.38468</v>
+        <v>-16.83363</v>
       </c>
       <c r="D37" t="n">
-        <v>93.25847400000001</v>
+        <v>-0.074903863</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>500</v>
       </c>
       <c r="C38" t="n">
-        <v>-223.38468</v>
+        <v>-16.83363</v>
       </c>
       <c r="D38" t="n">
-        <v>93.25847400000001</v>
+        <v>-0.074903863</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -1604,10 +1604,10 @@
         <v>500</v>
       </c>
       <c r="C39" t="n">
-        <v>-56.873147</v>
+        <v>-157.93014</v>
       </c>
       <c r="D39" t="n">
-        <v>8.578139200000001</v>
+        <v>-2.287447</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>722</v>
       </c>
       <c r="C40" t="n">
-        <v>-45</v>
+        <v>344.65606</v>
       </c>
       <c r="D40" t="n">
-        <v>107.31098</v>
+        <v>-4.3485215e-17</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>388.30426</v>
+        <v>108.85748</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.20050006</v>
+        <v>0.56874645</v>
       </c>
     </row>
     <row r="3">
@@ -1683,10 +1683,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>391.14366</v>
+        <v>108.88645</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.20029712</v>
+        <v>0.56489545</v>
       </c>
     </row>
     <row r="4">
@@ -1694,10 +1694,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>299.30108</v>
+        <v>107.9492</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.25127642</v>
+        <v>0.7733470099999999</v>
       </c>
     </row>
     <row r="5">
@@ -1705,10 +1705,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>399.30784</v>
+        <v>108.96977</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.25541596</v>
+        <v>0.62802985</v>
       </c>
     </row>
     <row r="6">
@@ -1716,10 +1716,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>406.91952</v>
+        <v>109.04745</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.25267727</v>
+        <v>0.60150548</v>
       </c>
     </row>
     <row r="7">
@@ -1727,10 +1727,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>417.7414</v>
+        <v>109.15788</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.29658467</v>
+        <v>0.60287446</v>
       </c>
     </row>
     <row r="8">
@@ -1741,7 +1741,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.14896684</v>
+        <v>0.81223309</v>
       </c>
     </row>
     <row r="9">
@@ -1749,10 +1749,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>416.09255</v>
+        <v>109.14106</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.24504184</v>
+        <v>0.71615809</v>
       </c>
     </row>
     <row r="10">
@@ -1760,10 +1760,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>405.99339</v>
+        <v>109.038</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.22359265</v>
+        <v>0.75669047</v>
       </c>
     </row>
     <row r="11">
@@ -1771,10 +1771,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>426.19171</v>
+        <v>109.24412</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.24421602</v>
+        <v>0.69790072</v>
       </c>
     </row>
     <row r="12">
@@ -1782,10 +1782,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>401.63276</v>
+        <v>109.45559</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1461166</v>
+        <v>0.8826479699999999</v>
       </c>
     </row>
     <row r="13">
@@ -1793,10 +1793,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>485.92473</v>
+        <v>109.3916</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.097904191</v>
+        <v>0.89052825</v>
       </c>
     </row>
     <row r="14">
@@ -1804,10 +1804,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>487.20371</v>
+        <v>109.49612</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.021114637</v>
+        <v>0.98778117</v>
       </c>
     </row>
     <row r="15">
@@ -1815,10 +1815,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>312.2984</v>
+        <v>109.73467</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.16770558</v>
+        <v>0.94600881</v>
       </c>
     </row>
     <row r="16">
@@ -1826,10 +1826,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>120.00001</v>
+        <v>106.11942</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.070842895</v>
+        <v>1.1690583</v>
       </c>
     </row>
     <row r="17">
@@ -1837,10 +1837,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>186.80487</v>
+        <v>110.12672</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.083572965</v>
+        <v>1.1494757</v>
       </c>
     </row>
     <row r="18">
@@ -1848,10 +1848,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>13.245656</v>
+        <v>94.195048</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.11608713</v>
+        <v>1.2664757</v>
       </c>
     </row>
     <row r="19">
@@ -1859,10 +1859,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-78.443218</v>
+        <v>97.21258400000001</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.13945132</v>
+        <v>1.3095859</v>
       </c>
     </row>
     <row r="20">
@@ -1870,10 +1870,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>381.79986</v>
+        <v>109.9701</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.051886011</v>
+        <v>1.0861492</v>
       </c>
     </row>
     <row r="21">
@@ -1881,10 +1881,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>551.36072</v>
+        <v>109.83391</v>
       </c>
       <c r="C21" t="n">
-        <v>0.011867863</v>
+        <v>1.0672826</v>
       </c>
     </row>
     <row r="22">
@@ -1892,10 +1892,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-8.578139200000001</v>
+        <v>100.01458</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.11083664</v>
+        <v>1.3082565</v>
       </c>
     </row>
     <row r="23">
@@ -1903,10 +1903,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>97.727135</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.0721629</v>
+        <v>1.415649</v>
       </c>
     </row>
     <row r="24">
@@ -1914,10 +1914,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>644.6192</v>
+        <v>109.75901</v>
       </c>
       <c r="C24" t="n">
-        <v>0.061012493</v>
+        <v>1.070986</v>
       </c>
     </row>
     <row r="25">
@@ -1925,10 +1925,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>188.55632</v>
+        <v>106.81904</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.13983218</v>
+        <v>1.0177569</v>
       </c>
     </row>
     <row r="26">
@@ -1936,10 +1936,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>751.93018</v>
+        <v>109.75901</v>
       </c>
       <c r="C26" t="n">
-        <v>0.065062493</v>
+        <v>1.039967</v>
       </c>
     </row>
   </sheetData>

--- a/conejo/one_fictitious/output_test_a3.xlsx
+++ b/conejo/one_fictitious/output_test_a3.xlsx
@@ -554,7 +554,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>82.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -697,7 +697,7 @@
         <v>400</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25">
@@ -864,10 +864,10 @@
         <v>175</v>
       </c>
       <c r="C2" t="n">
-        <v>27.507133</v>
+        <v>20.950241</v>
       </c>
       <c r="D2" t="n">
-        <v>0.028976112</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -884,10 +884,10 @@
         <v>175</v>
       </c>
       <c r="C3" t="n">
-        <v>-96.96709300000001</v>
+        <v>-83.329948</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.90828046</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>175</v>
       </c>
       <c r="C4" t="n">
-        <v>-38.54004</v>
+        <v>-45.620293</v>
       </c>
       <c r="D4" t="n">
-        <v>0.18996858</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>175</v>
       </c>
       <c r="C5" t="n">
-        <v>-49.712129</v>
+        <v>-51.790415</v>
       </c>
       <c r="D5" t="n">
-        <v>0.083314972</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>175</v>
       </c>
       <c r="C6" t="n">
-        <v>-19.780738</v>
+        <v>-24.259344</v>
       </c>
       <c r="D6" t="n">
-        <v>0.27143019</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -964,10 +964,10 @@
         <v>175</v>
       </c>
       <c r="C7" t="n">
-        <v>13.997097</v>
+        <v>-14.988768</v>
       </c>
       <c r="D7" t="n">
-        <v>1.088798</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>-290.96419</v>
+        <v>-248.34118</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.1301536</v>
+        <v>-0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1004,10 +1004,10 @@
         <v>175</v>
       </c>
       <c r="C9" t="n">
-        <v>-123.71213</v>
+        <v>-125.79041</v>
       </c>
       <c r="D9" t="n">
-        <v>0.068226434</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1024,10 +1024,10 @@
         <v>175</v>
       </c>
       <c r="C10" t="n">
-        <v>-109.54004</v>
+        <v>-116.62029</v>
       </c>
       <c r="D10" t="n">
-        <v>0.19667335</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>175</v>
       </c>
       <c r="C11" t="n">
-        <v>-155.78074</v>
+        <v>-160.25934</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08623563200000001</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>175</v>
       </c>
       <c r="C12" t="n">
-        <v>157.5</v>
+        <v>175</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-9.1410573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1084,10 +1084,10 @@
         <v>175</v>
       </c>
       <c r="C13" t="n">
-        <v>-24.565076</v>
+        <v>-13.836278</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.10306221</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>175</v>
       </c>
       <c r="C14" t="n">
-        <v>11.065076</v>
+        <v>17.836278</v>
       </c>
       <c r="D14" t="n">
-        <v>0.10306221</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1124,10 +1124,10 @@
         <v>400</v>
       </c>
       <c r="C15" t="n">
-        <v>-149.94941</v>
+        <v>-145.2463</v>
       </c>
       <c r="D15" t="n">
-        <v>0.41759948</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>400</v>
       </c>
       <c r="C16" t="n">
-        <v>-159.33069</v>
+        <v>-184.36917</v>
       </c>
       <c r="D16" t="n">
-        <v>0.35360174</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1164,10 +1164,10 @@
         <v>400</v>
       </c>
       <c r="C17" t="n">
-        <v>-219.93721</v>
+        <v>-207.46024</v>
       </c>
       <c r="D17" t="n">
-        <v>0.21147507</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>400</v>
       </c>
       <c r="C18" t="n">
-        <v>-229.31849</v>
+        <v>-246.58312</v>
       </c>
       <c r="D18" t="n">
-        <v>0.14747733</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1204,10 +1204,10 @@
         <v>500</v>
       </c>
       <c r="C19" t="n">
-        <v>-219.0275</v>
+        <v>-269.74375</v>
       </c>
       <c r="D19" t="n">
-        <v>0.040522324</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1224,10 +1224,10 @@
         <v>500</v>
       </c>
       <c r="C20" t="n">
-        <v>-150.85913</v>
+        <v>-82.962788</v>
       </c>
       <c r="D20" t="n">
-        <v>0.27908024</v>
+        <v>-3.4194518e-14</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>500</v>
       </c>
       <c r="C21" t="n">
-        <v>-202.61025</v>
+        <v>-201.27873</v>
       </c>
       <c r="D21" t="n">
-        <v>0.10452006</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1264,10 +1264,10 @@
         <v>500</v>
       </c>
       <c r="C22" t="n">
-        <v>-186.03893</v>
+        <v>-229.67355</v>
       </c>
       <c r="D22" t="n">
-        <v>0.36740939</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1284,10 +1284,10 @@
         <v>500</v>
       </c>
       <c r="C23" t="n">
-        <v>-95.63775</v>
+        <v>-145.02248</v>
       </c>
       <c r="D23" t="n">
-        <v>0.26288933</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1304,10 +1304,10 @@
         <v>500</v>
       </c>
       <c r="C24" t="n">
-        <v>-344.85913</v>
+        <v>-276.96279</v>
       </c>
       <c r="D24" t="n">
-        <v>0.39204129</v>
+        <v>-4.8035156e-14</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1324,10 +1324,10 @@
         <v>500</v>
       </c>
       <c r="C25" t="n">
-        <v>115.19187</v>
+        <v>-2.0701978</v>
       </c>
       <c r="D25" t="n">
-        <v>4.0072915</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>500</v>
       </c>
       <c r="C26" t="n">
-        <v>-284.07803</v>
+        <v>-204.13549</v>
       </c>
       <c r="D26" t="n">
-        <v>-6.1048423</v>
+        <v>1.4210855e-14</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1364,10 +1364,10 @@
         <v>500</v>
       </c>
       <c r="C27" t="n">
-        <v>-284.07803</v>
+        <v>-204.13549</v>
       </c>
       <c r="D27" t="n">
-        <v>-6.1048423</v>
+        <v>-1.4210855e-14</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>500</v>
       </c>
       <c r="C28" t="n">
-        <v>290.96419</v>
+        <v>248.34118</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6996189</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1404,13 +1404,13 @@
         <v>500</v>
       </c>
       <c r="C29" t="n">
-        <v>-450</v>
+        <v>-247.72902</v>
       </c>
       <c r="D29" t="n">
-        <v>6.4786082</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>22.410276</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1424,10 +1424,10 @@
         <v>500</v>
       </c>
       <c r="C30" t="n">
-        <v>275.33274</v>
+        <v>23.696033</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.15661717</v>
+        <v>-1.8725569e-14</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>500</v>
       </c>
       <c r="C31" t="n">
-        <v>-307.93014</v>
+        <v>-109.4256</v>
       </c>
       <c r="D31" t="n">
-        <v>3.0175364</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>500</v>
       </c>
       <c r="C32" t="n">
-        <v>-142.06986</v>
+        <v>-138.30342</v>
       </c>
       <c r="D32" t="n">
-        <v>3.5320874</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1484,10 +1484,10 @@
         <v>500</v>
       </c>
       <c r="C33" t="n">
-        <v>5.1129567</v>
+        <v>-76.7128</v>
       </c>
       <c r="D33" t="n">
-        <v>2.801998</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1504,10 +1504,10 @@
         <v>500</v>
       </c>
       <c r="C34" t="n">
-        <v>5.1129567</v>
+        <v>-76.7128</v>
       </c>
       <c r="D34" t="n">
-        <v>2.801998</v>
+        <v>-0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>500</v>
       </c>
       <c r="C35" t="n">
-        <v>47.16637</v>
+        <v>-78.651984</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.13618884</v>
+        <v>-1.8355353e-14</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1544,10 +1544,10 @@
         <v>500</v>
       </c>
       <c r="C36" t="n">
-        <v>47.16637</v>
+        <v>-78.651984</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.13618884</v>
+        <v>-1.4210855e-14</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1564,10 +1564,10 @@
         <v>500</v>
       </c>
       <c r="C37" t="n">
-        <v>-16.83363</v>
+        <v>-142.65198</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.074903863</v>
+        <v>-3.7005593e-15</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>500</v>
       </c>
       <c r="C38" t="n">
-        <v>-16.83363</v>
+        <v>-142.65198</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.074903863</v>
+        <v>-1.4210855e-14</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -1604,10 +1604,10 @@
         <v>500</v>
       </c>
       <c r="C39" t="n">
-        <v>-157.93014</v>
+        <v>-161.69658</v>
       </c>
       <c r="D39" t="n">
-        <v>-2.287447</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>722</v>
       </c>
       <c r="C40" t="n">
-        <v>344.65606</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-4.3485215e-17</v>
+        <v>-7.327396600000001e-15</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>108.85748</v>
+        <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.56874645</v>
+        <v>-57.131627</v>
       </c>
     </row>
     <row r="3">
@@ -1683,10 +1683,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>108.88645</v>
+        <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.56489545</v>
+        <v>-57.42493</v>
       </c>
     </row>
     <row r="4">
@@ -1694,10 +1694,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>107.9492</v>
+        <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7733470099999999</v>
+        <v>-39.549008</v>
       </c>
     </row>
     <row r="5">
@@ -1705,10 +1705,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>108.96977</v>
+        <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>0.62802985</v>
+        <v>-50.847548</v>
       </c>
     </row>
     <row r="6">
@@ -1716,10 +1716,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>109.04745</v>
+        <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.60150548</v>
+        <v>-53.253902</v>
       </c>
     </row>
     <row r="7">
@@ -1727,10 +1727,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>109.15788</v>
+        <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.60287446</v>
+        <v>-52.767136</v>
       </c>
     </row>
     <row r="8">
@@ -1741,7 +1741,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>0.81223309</v>
+        <v>-29.37333</v>
       </c>
     </row>
     <row r="9">
@@ -1749,10 +1749,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>109.14106</v>
+        <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>0.71615809</v>
+        <v>-40.04833</v>
       </c>
     </row>
     <row r="10">
@@ -1760,10 +1760,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>109.038</v>
+        <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.75669047</v>
+        <v>-37.765345</v>
       </c>
     </row>
     <row r="11">
@@ -1771,10 +1771,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>109.24412</v>
+        <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.69790072</v>
+        <v>-42.991316</v>
       </c>
     </row>
     <row r="12">
@@ -1782,10 +1782,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>109.45559</v>
+        <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8826479699999999</v>
+        <v>-25.564656</v>
       </c>
     </row>
     <row r="13">
@@ -1793,10 +1793,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>109.3916</v>
+        <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>0.89052825</v>
+        <v>-22.278335</v>
       </c>
     </row>
     <row r="14">
@@ -1804,10 +1804,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>109.49612</v>
+        <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.98778117</v>
+        <v>-12.616956</v>
       </c>
     </row>
     <row r="15">
@@ -1815,10 +1815,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>109.73467</v>
+        <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.94600881</v>
+        <v>-22.080219</v>
       </c>
     </row>
     <row r="16">
@@ -1826,10 +1826,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>106.11942</v>
+        <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.1690583</v>
+        <v>-5.7746076</v>
       </c>
     </row>
     <row r="17">
@@ -1837,10 +1837,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>110.12672</v>
+        <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.1494757</v>
+        <v>-5.7394142</v>
       </c>
     </row>
     <row r="18">
@@ -1848,10 +1848,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>94.195048</v>
+        <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>1.2664757</v>
+        <v>0.70154024</v>
       </c>
     </row>
     <row r="19">
@@ -1859,10 +1859,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>97.21258400000001</v>
+        <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>1.3095859</v>
+        <v>2.2334986</v>
       </c>
     </row>
     <row r="20">
@@ -1870,10 +1870,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>109.9701</v>
+        <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0861492</v>
+        <v>-6.284423</v>
       </c>
     </row>
     <row r="21">
@@ -1881,10 +1881,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>109.83391</v>
+        <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.0672826</v>
+        <v>-3.1383436</v>
       </c>
     </row>
     <row r="22">
@@ -1892,10 +1892,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>100.01458</v>
+        <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>1.3082565</v>
+        <v>4.2280315</v>
       </c>
     </row>
     <row r="23">
@@ -1903,10 +1903,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>97.727135</v>
+        <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>1.415649</v>
+        <v>15.223399</v>
       </c>
     </row>
     <row r="24">
@@ -1914,10 +1914,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>109.75901</v>
+        <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.070986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1925,10 +1925,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>106.81904</v>
+        <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.0177569</v>
+        <v>-18.688349</v>
       </c>
     </row>
     <row r="26">
@@ -1936,10 +1936,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>109.75901</v>
+        <v>100</v>
       </c>
       <c r="C26" t="n">
-        <v>1.039967</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
